--- a/biology/Médecine/1523_en_santé_et_médecine/1523_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1523_en_santé_et_médecine/1523_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1523_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1523_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1523 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1523_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1523_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'humaniste allemand Ulrich von Hutten meurt à trente-cinq ans de la syphilis, maladie qu'il a contractée en 1508 et à laquelle il a consacré, en 1519, un ouvrage intitulé De guaiaci medicina et morbo gallico (« Du traitement du mal français par le bois de gaïac[1],[2] »).
-Des enfants orphelins ou abandonnés recueillis à l'hôtel-Dieu de Lyon, neuf sont au berceau et les autres, des deux sexes, sont âgés de cinq ou six ans et en instance d'être placés « ou [d'être mis] à la rue munis d'un écriteau les recommandant à la compassion des passants[3] ».</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L'humaniste allemand Ulrich von Hutten meurt à trente-cinq ans de la syphilis, maladie qu'il a contractée en 1508 et à laquelle il a consacré, en 1519, un ouvrage intitulé De guaiaci medicina et morbo gallico (« Du traitement du mal français par le bois de gaïac, »).
+Des enfants orphelins ou abandonnés recueillis à l'hôtel-Dieu de Lyon, neuf sont au berceau et les autres, des deux sexes, sont âgés de cinq ou six ans et en instance d'être placés « ou [d'être mis] à la rue munis d'un écriteau les recommandant à la compassion des passants ».</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1523_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1523_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Sous le titre de De morbis et symptomatibus, Guillaume Cop (c. 1460-1532) fait imprimer à Paris, chez Josse Bade, sa traduction latine des quatre traités de Galien Sur les différences et les causes des maladies et des symptômes[4].
-Dans la deuxième édition de ses Isagogae breves, imprimées à Bologne chez Benedetto Faelli, Bérenger de Carpi (1460-1530) décrit l'appendice et les vésicules séminales[5],[6],[7].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sous le titre de De morbis et symptomatibus, Guillaume Cop (c. 1460-1532) fait imprimer à Paris, chez Josse Bade, sa traduction latine des quatre traités de Galien Sur les différences et les causes des maladies et des symptômes.
+Dans la deuxième édition de ses Isagogae breves, imprimées à Bologne chez Benedetto Faelli, Bérenger de Carpi (1460-1530) décrit l'appendice et les vésicules séminales.</t>
         </is>
       </c>
     </row>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1523_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1523_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,9 +589,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Gabriel Fallope (mort en  1562), naturaliste, botaniste, anatomiste et chirurgien italien auteur d'Observationes anatomicae publiées à Venise chez Marcus Antonius Ulmus en 1561[8].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Gabriel Fallope (mort en  1562), naturaliste, botaniste, anatomiste et chirurgien italien auteur d'Observationes anatomicae publiées à Venise chez Marcus Antonius Ulmus en 1561.</t>
         </is>
       </c>
     </row>
@@ -585,7 +603,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1523_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1523_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -603,10 +621,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Abraham de Balmes (né vers 1440), médecin juif né dans le royaume de Naples, grammairien et auteur de traductions de l'hébreu en latin[9].
-Matthias de Miechow (en) (né en 1457), géographe, astrologue et médecin polonais[10].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abraham de Balmes (né vers 1440), médecin juif né dans le royaume de Naples, grammairien et auteur de traductions de l'hébreu en latin.
+Matthias de Miechow (en) (né en 1457), géographe, astrologue et médecin polonais.
 </t>
         </is>
       </c>
